--- a/statistics/visualizations/input/connectivity_matrix_WR_adj_p_theta.xlsx
+++ b/statistics/visualizations/input/connectivity_matrix_WR_adj_p_theta.xlsx
@@ -57,38 +57,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" customWidth="true"/>
-    <col min="3" max="3" width="5.7109375" customWidth="true"/>
-    <col min="4" max="4" width="5.7109375" customWidth="true"/>
+    <col min="2" max="2" width="6.7109375" customWidth="true"/>
+    <col min="3" max="3" width="6.7109375" customWidth="true"/>
+    <col min="4" max="4" width="6.7109375" customWidth="true"/>
     <col min="5" max="5" width="5.7109375" customWidth="true"/>
-    <col min="6" max="6" width="5.7109375" customWidth="true"/>
+    <col min="6" max="6" width="6.7109375" customWidth="true"/>
     <col min="7" max="7" width="5.7109375" customWidth="true"/>
     <col min="8" max="8" width="5.7109375" customWidth="true"/>
     <col min="9" max="9" width="5.7109375" customWidth="true"/>
-    <col min="10" max="10" width="5.7109375" customWidth="true"/>
+    <col min="10" max="10" width="6.7109375" customWidth="true"/>
     <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="12" max="12" width="5.7109375" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
     <col min="14" max="14" width="5.7109375" customWidth="true"/>
     <col min="15" max="15" width="5.7109375" customWidth="true"/>
-    <col min="16" max="16" width="5.7109375" customWidth="true"/>
+    <col min="16" max="16" width="6.7109375" customWidth="true"/>
     <col min="17" max="17" width="5.7109375" customWidth="true"/>
-    <col min="18" max="18" width="5.7109375" customWidth="true"/>
-    <col min="19" max="19" width="5.7109375" customWidth="true"/>
+    <col min="18" max="18" width="6.7109375" customWidth="true"/>
+    <col min="19" max="19" width="6.7109375" customWidth="true"/>
     <col min="20" max="20" width="5.7109375" customWidth="true"/>
-    <col min="21" max="21" width="5.7109375" customWidth="true"/>
-    <col min="22" max="22" width="5.7109375" customWidth="true"/>
+    <col min="21" max="21" width="6.7109375" customWidth="true"/>
+    <col min="22" max="22" width="6.7109375" customWidth="true"/>
     <col min="23" max="23" width="5.7109375" customWidth="true"/>
-    <col min="24" max="24" width="5.7109375" customWidth="true"/>
+    <col min="24" max="24" width="6.7109375" customWidth="true"/>
     <col min="25" max="25" width="5.7109375" customWidth="true"/>
     <col min="26" max="26" width="5.7109375" customWidth="true"/>
     <col min="27" max="27" width="5.7109375" customWidth="true"/>
-    <col min="28" max="28" width="5.7109375" customWidth="true"/>
+    <col min="28" max="28" width="6.7109375" customWidth="true"/>
     <col min="29" max="29" width="5.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
-    <col min="31" max="31" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="6.7109375" customWidth="true"/>
+    <col min="31" max="31" width="6.7109375" customWidth="true"/>
     <col min="32" max="32" width="5.7109375" customWidth="true"/>
-    <col min="33" max="33" width="5.7109375" customWidth="true"/>
+    <col min="33" max="33" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -248,7 +248,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="S2" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="T2" s="0">
         <v>0.98299999999999998</v>
@@ -382,7 +382,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="AE3" s="0">
         <v>0.98299999999999998</v>
@@ -411,7 +411,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="F4" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="G4" s="0">
         <v>0.98299999999999998</v>
@@ -447,7 +447,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="R4" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="S4" s="0">
         <v>0.98299999999999998</v>
@@ -607,7 +607,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="D6" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="E6" s="0">
         <v>0.98299999999999998</v>
@@ -1071,7 +1071,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="X10" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="Y10" s="0">
         <v>0.98299999999999998</v>
@@ -1677,7 +1677,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="X16" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="Y16" s="0">
         <v>0.98299999999999998</v>
@@ -1819,7 +1819,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="D18" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="E18" s="0">
         <v>0.98299999999999998</v>
@@ -1914,7 +1914,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="B19" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="C19" s="0">
         <v>0.98299999999999998</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="W21" s="0">
         <v>0.98299999999999998</v>
@@ -2274,7 +2274,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="U22" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="J24" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="K24" s="0">
         <v>0.98299999999999998</v>
@@ -2461,7 +2461,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="P24" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="Q24" s="0">
         <v>0.98299999999999998</v>
@@ -2910,7 +2910,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="AE28" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="AF28" s="0">
         <v>0.98299999999999998</v>
@@ -3028,7 +3028,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="C30" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="D30" s="0">
         <v>0.98299999999999998</v>
@@ -3204,7 +3204,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="AB31" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="AC31" s="0">
         <v>0.98299999999999998</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
     </row>
     <row r="33">
@@ -3418,7 +3418,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.99099999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
